--- a/fuentes/contenidos/grado10/guion01/SolicitudGrafica MA_10_01_CO_REC20.xlsx
+++ b/fuentes/contenidos/grado10/guion01/SolicitudGrafica MA_10_01_CO_REC20.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Desktop\Nueva carpeta (4)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Documents\GitHub\Matematicas\fuentes\contenidos\grado10\guion01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="201">
   <si>
     <t>Fecha:</t>
   </si>
@@ -627,6 +627,9 @@
   </si>
   <si>
     <t>Imagen con la expresión que se muestra adjunta en la observación, usar codecogs con el código:  \frac{1+\sqrt{5}}{2}</t>
+  </si>
+  <si>
+    <t>Ver carpeta fórmulas</t>
   </si>
 </sst>
 </file>
@@ -1789,307 +1792,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>650875</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1476376</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1039812</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect l="52763" t="48837" r="37844" b="31564"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17025938" y="2190750"/>
-          <a:ext cx="825501" cy="968375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>174626</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1936751</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>825500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect l="45193" t="48741" r="31498" b="32211"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16549689" y="3230563"/>
-          <a:ext cx="1762125" cy="809625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>134938</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>39688</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>2008188</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>555626</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:srcRect l="47179" t="47944" r="31402" b="41564"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16510001" y="4246563"/>
-          <a:ext cx="1873250" cy="515938"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>269875</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>214314</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>2182813</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>642938</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:srcRect l="42625" t="48738" r="28562" b="39780"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16644938" y="4992689"/>
-          <a:ext cx="1912938" cy="428624"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>309561</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1825623</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>1230312</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagen 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:srcRect l="50735" t="47780" r="31944" b="27705"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16684624" y="5572125"/>
-          <a:ext cx="1516062" cy="1206500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>174627</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1730375</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>1031876</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Imagen 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:srcRect l="47567" t="47519" r="28713" b="28500"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16597313" y="7008815"/>
-          <a:ext cx="1508125" cy="857249"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>825500</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>12225</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1347052</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>690563</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Imagen 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:srcRect l="53193" t="49611" r="35142" b="23403"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17200563" y="8076725"/>
-          <a:ext cx="521552" cy="678338"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>690029</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>103187</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1631918</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>754061</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Imagen 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:srcRect l="50307" t="50474" r="29260" b="24410"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17065092" y="9850437"/>
-          <a:ext cx="941889" cy="650874"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -2803,9 +2505,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3:G3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K10" sqref="K10:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3126,7 +2828,9 @@
       <c r="J10" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="K10" s="64"/>
+      <c r="K10" s="64" t="s">
+        <v>200</v>
+      </c>
       <c r="O10" s="2" t="str">
         <f>'Definición técnica de imagenes'!A12</f>
         <v>M12D</v>
@@ -3167,7 +2871,9 @@
       <c r="J11" s="64" t="s">
         <v>193</v>
       </c>
-      <c r="K11" s="65"/>
+      <c r="K11" s="64" t="s">
+        <v>200</v>
+      </c>
       <c r="O11" s="2" t="str">
         <f>'Definición técnica de imagenes'!A13</f>
         <v>M101</v>
@@ -3208,7 +2914,9 @@
       <c r="J12" s="64" t="s">
         <v>191</v>
       </c>
-      <c r="K12" s="64"/>
+      <c r="K12" s="64" t="s">
+        <v>200</v>
+      </c>
       <c r="O12" s="2" t="str">
         <f>'Definición técnica de imagenes'!A18</f>
         <v>Diaporama F1</v>
@@ -3249,7 +2957,9 @@
       <c r="J13" s="64" t="s">
         <v>194</v>
       </c>
-      <c r="K13" s="64"/>
+      <c r="K13" s="64" t="s">
+        <v>200</v>
+      </c>
       <c r="O13" s="2" t="str">
         <f>'Definición técnica de imagenes'!A19</f>
         <v>F4</v>
@@ -3290,7 +3000,9 @@
       <c r="J14" s="64" t="s">
         <v>195</v>
       </c>
-      <c r="K14" s="64"/>
+      <c r="K14" s="64" t="s">
+        <v>200</v>
+      </c>
       <c r="O14" s="2" t="str">
         <f>'Definición técnica de imagenes'!A22</f>
         <v>F6</v>
@@ -3331,13 +3043,15 @@
       <c r="J15" s="64" t="s">
         <v>196</v>
       </c>
-      <c r="K15" s="66"/>
+      <c r="K15" s="64" t="s">
+        <v>200</v>
+      </c>
       <c r="O15" s="2" t="str">
         <f>'Definición técnica de imagenes'!A24</f>
         <v>F6B</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="11" customFormat="1" ht="54.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" s="11" customFormat="1" ht="54" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG07</v>
@@ -3372,7 +3086,9 @@
       <c r="J16" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="K16" s="68"/>
+      <c r="K16" s="64" t="s">
+        <v>200</v>
+      </c>
       <c r="O16" s="2" t="str">
         <f>'Definición técnica de imagenes'!A25</f>
         <v>F7</v>
@@ -3413,7 +3129,9 @@
       <c r="J17" s="66" t="s">
         <v>198</v>
       </c>
-      <c r="K17" s="66"/>
+      <c r="K17" s="64" t="s">
+        <v>200</v>
+      </c>
       <c r="O17" s="2" t="str">
         <f>'Definición técnica de imagenes'!A27</f>
         <v>F7B</v>
@@ -3454,7 +3172,9 @@
       <c r="J18" s="66" t="s">
         <v>199</v>
       </c>
-      <c r="K18" s="66"/>
+      <c r="K18" s="64" t="s">
+        <v>200</v>
+      </c>
       <c r="O18" s="2" t="str">
         <f>'Definición técnica de imagenes'!A30</f>
         <v>F8</v>
@@ -6320,7 +6040,6 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
